--- a/Personal/xueyu/plan/总体规划.xlsx
+++ b/Personal/xueyu/plan/总体规划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74D5633-7DC4-47F7-86EA-CC13011BECB2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56960D6-85FD-4A2D-AC73-7500856FC721}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>2018/5/5-2019/5/10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,10 @@
   </si>
   <si>
     <t>只学习高数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +389,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -398,6 +402,9 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
